--- a/biology/Histoire de la zoologie et de la botanique/Georges_Pasteur/Georges_Pasteur.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georges_Pasteur/Georges_Pasteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Pasteur, né le 26 février 1930 à Paris et mort le 21 décembre 2015 à Montpellier, est un biologiste français. 
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière scientifique
-Les contributions de Georges Pasteur portent sur la zoologie, plus particulièrement l'herpétologie et l'ornithologie, sur la génétique, notamment la génétique des populations, l'évolution, le mimétisme et la cytogénétique, sur la systématique[1],[2],[3].
-Vie familiale
-En secondes noces, Georges Pasteur se marie le 25 août 1965 avec la généticienne Nicole Mercier[4].
-En 1991, le couple est lauréat du prix Charles-Bocquet décerné par la Société zoologique de France pour des travaux en biologie de l'évolution[5].
-			Georges et Nicole Pasteur le 18 juillet 2004.
+          <t>Carrière scientifique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les contributions de Georges Pasteur portent sur la zoologie, plus particulièrement l'herpétologie et l'ornithologie, sur la génétique, notamment la génétique des populations, l'évolution, le mimétisme et la cytogénétique, sur la systématique.
 </t>
         </is>
       </c>
@@ -544,22 +557,176 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie familiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En secondes noces, Georges Pasteur se marie le 25 août 1965 avec la généticienne Nicole Mercier.
+En 1991, le couple est lauréat du prix Charles-Bocquet décerné par la Société zoologique de France pour des travaux en biologie de l'évolution.
+			Georges et Nicole Pasteur le 18 juillet 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges_Pasteur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Pasteur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publications
-Ouvrages de vulgarisation
-Le Mimétisme, Que sais-je ?, Presses universitaires de France, 1972.
-Biologie et Mimétismes, Nathan, 1995. Prix Jacques-Lacroix 1996 de l'Académie française.
-Publications scientifiques
-Georges Pasteur, « Examen critique d'un récent ouvrage de George G. Simpson ; Une mise au point : Taxinomie et Taxionomie », Mammalia, Walter de Gruyter GmbH, vol. 26, no 2,‎ 1962, p. 280-287 (ISSN 0025-1461, DOI 10.1515/mamm.1962.26.2.280, résumé).
-(en) Georges Pasteur, « The Proper Spelling of Taxonomy », Systematic Zoology, vol. 25, no 2,‎ 1976, p. 192-193 (ISSN 0039-7989, DOI 10.2307/2412746).
-Taxons nommés en son honneur
-Mesalina pasteuri Bons, 1960[6]
-Phelsuma pasteuri Meier, 1984[7]
-Taxons décrits (dans leur statut actuel)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ouvrages de vulgarisation</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Mimétisme, Que sais-je ?, Presses universitaires de France, 1972.
+Biologie et Mimétismes, Nathan, 1995. Prix Jacques-Lacroix 1996 de l'Académie française.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Georges_Pasteur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Pasteur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Publications scientifiques</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Georges Pasteur, « Examen critique d'un récent ouvrage de George G. Simpson ; Une mise au point : Taxinomie et Taxionomie », Mammalia, Walter de Gruyter GmbH, vol. 26, no 2,‎ 1962, p. 280-287 (ISSN 0025-1461, DOI 10.1515/mamm.1962.26.2.280, résumé).
+(en) Georges Pasteur, « The Proper Spelling of Taxonomy », Systematic Zoology, vol. 25, no 2,‎ 1976, p. 192-193 (ISSN 0039-7989, DOI 10.2307/2412746).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Georges_Pasteur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Pasteur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxons nommés en son honneur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mesalina pasteuri Bons, 1960
+Phelsuma pasteuri Meier, 1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Georges_Pasteur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Pasteur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxons décrits (dans leur statut actuel)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 GEKKONIDAE
 ┼Lygodactylus antiquus Pasteur, 1995a [ambre fossile]
 Lygodactylus arnoulti Pasteur, 1965
